--- a/medicine/Psychotrope/Undercover___Une_histoire_vraie/Undercover___Une_histoire_vraie.xlsx
+++ b/medicine/Psychotrope/Undercover___Une_histoire_vraie/Undercover___Une_histoire_vraie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Undercover : Une histoire vraie ou White Boy Rick au Québec (White Boy Rick) est un film policier américain réalisé par Yann Demange et sorti en 2018. Il s'inspire de la vie de Richard Wershe Jr.[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Undercover : Une histoire vraie ou White Boy Rick au Québec (White Boy Rick) est un film policier américain réalisé par Yann Demange et sorti en 2018. Il s'inspire de la vie de Richard Wershe Jr..
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1984, Richard Wershe est un père célibataire en difficulté vivant à Detroit au plus fort de l'épidémie de crack et de la guerre contre la drogue. Sa fille, Dawn, quitte leur maison, laissant Rick seul avec son fils, Richard Jr. Richard fabrique des pièces d'armes à feu et vend des armes illégalement pour joindre les deux bouts, et implique son fils dans la vente d'une paire de fusils Kalachnikov égyptiens silencieux avec le gangster local Johnny Curry. Ricky se lie d'amitié avec le frère de Johnny, Boo, ce qui lui vaut la faveur de Johnny et de son équipage. La nouvelle de l'activité de Richard attire l'attention du FBI et il est interrogé par deux agents, Alex Snyder et Frank Byrd, qui voient Richard Jr comme un atout potentiel en raison de ses liens avec la pègre. Ils convainquent Richard Jr de devenir un informateur infiltré derrière le dos de Richard en échange d'argent et de l'immunité pour son père. Richard Jr est invité à vendre de la drogue pour préserver les apparences, devient captivé par son nouveau style de vie extravagant et finit par gagner suffisamment de crédibilité en tant que fournisseur de drogue "légitime". Richard se méfie de son fils et confronte Richard Jr lorsqu'il trouve des milliers de dollars en espèces illicites sous son lit, provoquant une rupture entre eux. Alors que Richard Jr rencontre Dawn dans un restaurant un soir, la voiture de son grand-père est volée et les deux tirent sur la voiture en fuite. Ils sont arrêtés mais renfloués par les maîtres-chiens de Richard Jr, ce qui éveille les soupçons de Johnny.
 Lors d'une fête après un match de boxe à Las Vegas, Johnny bat l'ami de son rival, Black Ed, à un pouce de sa vie avec une bouteille de champagne. Par la suite, il ordonne un drive-by chez son rival, Leon Lucas, tuant l'un de ses neveux. Richard Jr apprend que les armes utilisées étaient les mêmes AK qu'il avait vendues à Johnny. Dévasté par son implication dans un meurtre, il fait profil bas et raccommode sa relation avec son père. Johnny soupçonne Richard Jr d'être un informateur et envoie Nug chez lui, qui lui tire une balle dans le ventre. Pendant son séjour à l'hôpital, Snyder informe Richard Jr qu'ils ont suffisamment de preuves pour faire une descente dans toutes les maisons sécurisées de Johnny et lui demande d'oublier la fusillade en échange de l'abandon de toutes les charges contre son père.
@@ -546,7 +560,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre français : Undercover : Une histoire vraie
@@ -565,7 +581,7 @@
 Pays de production :  États-Unis
 Langue originale : Anglais américain
 Format : couleur
-Budget : 29 millions de dollars[2]
+Budget : 29 millions de dollars
 Genre : Drame et biopic
 Dates de sortie :
 États-Unis : 31 aout 2018 (festival de Telluride) ; 14 septembre 2018 (sortie nationale)
@@ -598,7 +614,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Matthew McConaughey (VF : Emmanuel Curtil) : Richard Wershe, Sr.
 Richie Merritt (VF : Antoine Fonck) : Richard Wershe, Jr.
@@ -618,7 +636,7 @@
 LaShawn Little (VF : Enrique Carballido) : Leon Lucas
 James Shinkle (VF : Patrick Mancini) : William « Bill » Bufalino, Jr.
 Brad Carter (VF : Emmanuel Karsen) : Bob, le revendeur d'armes à feu
- Source et légende : version française (VF) sur RS Doublage[3]</t>
+ Source et légende : version française (VF) sur RS Doublage</t>
         </is>
       </c>
     </row>
@@ -646,11 +664,13 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En février 2015, la société de production Studio 8 acquiert un script spéculatif écrit par Logan Miller et Noah Miller, intitulé White Boy Rick[4]. Il avait auparavant figuré sur The Black List 2015 des meilleurs scénarios en attente d'acquéreurs[5].
-Timothée Chalamet a auditionné pour le rôle de Rick[6].
-Le tournage a lieu dans l'Ohio (Cleveland, Grafton, Lakewood, Euclid, Strongsville), ainsi qu'à Détroit, Miami et Las Vegas[7]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En février 2015, la société de production Studio 8 acquiert un script spéculatif écrit par Logan Miller et Noah Miller, intitulé White Boy Rick. Il avait auparavant figuré sur The Black List 2015 des meilleurs scénarios en attente d'acquéreurs.
+Timothée Chalamet a auditionné pour le rôle de Rick.
+Le tournage a lieu dans l'Ohio (Cleveland, Grafton, Lakewood, Euclid, Strongsville), ainsi qu'à Détroit, Miami et Las Vegas
 </t>
         </is>
       </c>
@@ -681,13 +701,53 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Critique
-Sur l’agrégateur de critiques Rotten Tomatoes, il obtient 57% d'avis favorables pour 159 critiques et une note moyenne de 6,1⁄10. Le consensus suivant résume les critiques compilées par le site : « Le travail solide de la distribution – en particulier un Matthew McConaughey qui vole la vedette – aide White Boy Rick à rattraper un certain nombre d'opportunités manquées dans le scénario[9] ». Sur Metacritic, il obtient une note moyenne de 59⁄100 pour 35 critiques[10].
+          <t>Critique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur l’agrégateur de critiques Rotten Tomatoes, il obtient 57% d'avis favorables pour 159 critiques et une note moyenne de 6,1⁄10. Le consensus suivant résume les critiques compilées par le site : « Le travail solide de la distribution – en particulier un Matthew McConaughey qui vole la vedette – aide White Boy Rick à rattraper un certain nombre d'opportunités manquées dans le scénario ». Sur Metacritic, il obtient une note moyenne de 59⁄100 pour 35 critiques.
 Sur le site AlloCiné, qui recense 18 critiques de presse, le film obtient la note moyenne de 3,2⁄5
-[8].
-Pour Télérama, « si les ingrédients du polar sont là, c’est le portrait de la ville de Detroit qui saisit »[8]. Première écrit : « Un destin hors du commun qui contraste avec le manque d’aspérité de ce film, proprement réalisé, pas désagréable à regarder, mais auquel il manque le souffle qu’avait su insuffler Yann Demange à son formidable ‘71 »[8].
-Box-office
-Produit pour un budget de 29 millions de dollars, le film n'en récolte que 25 millions au box-office[2].
+.
+Pour Télérama, « si les ingrédients du polar sont là, c’est le portrait de la ville de Detroit qui saisit ». Première écrit : « Un destin hors du commun qui contraste avec le manque d’aspérité de ce film, proprement réalisé, pas désagréable à regarder, mais auquel il manque le souffle qu’avait su insuffler Yann Demange à son formidable ‘71 ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Undercover_:_Une_histoire_vraie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Undercover_:_Une_histoire_vraie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Produit pour un budget de 29 millions de dollars, le film n'en récolte que 25 millions au box-office.
 </t>
         </is>
       </c>
